--- a/patient_data/patient_52.xlsx
+++ b/patient_data/patient_52.xlsx
@@ -900,16 +900,16 @@
         <v>0</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -954,16 +954,16 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -977,16 +977,16 @@
         <v>0</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -1031,16 +1031,16 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1054,16 +1054,16 @@
         <v>0</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
@@ -1131,16 +1131,16 @@
         <v>0</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -2387,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
